--- a/Test Hypothesis WIth Data/AdvancedTestHypothesis/CaseStudy-Graded/Graded Assignment Dataset- Statistics.xlsx
+++ b/Test Hypothesis WIth Data/AdvancedTestHypothesis/CaseStudy-Graded/Graded Assignment Dataset- Statistics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JGA\Content\DSS Redo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\3GitHub\JigsawRepository\Test Hypothesis WIth Data\AdvancedTestHypothesis\CaseStudy-Graded\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BJ$109</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T109"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R82" sqref="R82"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -541,7 +541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>39</v>
       </c>
@@ -604,7 +604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>40</v>
       </c>
@@ -666,8 +666,11 @@
       <c r="T4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V4">
+        <v>589.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>47</v>
       </c>
@@ -729,8 +732,11 @@
       <c r="T5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V5">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>55</v>
       </c>
@@ -792,8 +798,12 @@
       <c r="T6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V6" t="e">
+        <f>CHITEST(D2:D109,V5)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>64</v>
       </c>
@@ -856,7 +866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>84</v>
       </c>
@@ -919,7 +929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>106</v>
       </c>
@@ -982,7 +992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>115</v>
       </c>
@@ -1045,7 +1055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>129</v>
       </c>
@@ -1108,7 +1118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>145</v>
       </c>
@@ -1171,7 +1181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>157</v>
       </c>
@@ -1234,7 +1244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>159</v>
       </c>
@@ -1297,7 +1307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>208</v>
       </c>
@@ -1360,7 +1370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>211</v>
       </c>
@@ -1423,7 +1433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>214</v>
       </c>
@@ -1486,7 +1496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>218</v>
       </c>
@@ -1549,7 +1559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>219</v>
       </c>
@@ -1612,7 +1622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>220</v>
       </c>
@@ -1675,7 +1685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>221</v>
       </c>
@@ -1738,7 +1748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>224</v>
       </c>
@@ -1801,7 +1811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>232</v>
       </c>
@@ -1864,7 +1874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>240</v>
       </c>
@@ -1927,7 +1937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>243</v>
       </c>
@@ -1990,7 +2000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>247</v>
       </c>
@@ -2053,7 +2063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>248</v>
       </c>
@@ -2116,7 +2126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>254</v>
       </c>
@@ -2179,7 +2189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>256</v>
       </c>
@@ -2242,7 +2252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>258</v>
       </c>
@@ -2305,7 +2315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>262</v>
       </c>
@@ -2368,7 +2378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>263</v>
       </c>
@@ -2431,7 +2441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>267</v>
       </c>
@@ -2494,7 +2504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>275</v>
       </c>
@@ -2557,7 +2567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>276</v>
       </c>
@@ -2620,7 +2630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>278</v>
       </c>
@@ -2683,7 +2693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>280</v>
       </c>
@@ -2746,7 +2756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>291</v>
       </c>
@@ -2809,7 +2819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>296</v>
       </c>
@@ -2872,7 +2882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>300</v>
       </c>
@@ -2935,7 +2945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>301</v>
       </c>
@@ -2998,7 +3008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>310</v>
       </c>
@@ -3061,7 +3071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>312</v>
       </c>
@@ -3124,7 +3134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>319</v>
       </c>
@@ -3187,7 +3197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>320</v>
       </c>
@@ -3250,7 +3260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>325</v>
       </c>
@@ -3313,7 +3323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>337</v>
       </c>
@@ -3376,7 +3386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>338</v>
       </c>
@@ -3439,7 +3449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>340</v>
       </c>
@@ -3502,7 +3512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>341</v>
       </c>
@@ -3565,7 +3575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>343</v>
       </c>
@@ -3628,7 +3638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>344</v>
       </c>
@@ -3691,7 +3701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>345</v>
       </c>
@@ -3754,7 +3764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>353</v>
       </c>
@@ -3817,7 +3827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>364</v>
       </c>
@@ -3880,7 +3890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>365</v>
       </c>
@@ -3943,7 +3953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>366</v>
       </c>
@@ -4006,7 +4016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>369</v>
       </c>
@@ -4069,7 +4079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>371</v>
       </c>
@@ -4132,7 +4142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>374</v>
       </c>
@@ -4195,7 +4205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>379</v>
       </c>
@@ -4258,7 +4268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>380</v>
       </c>
@@ -4321,7 +4331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>384</v>
       </c>
@@ -4384,7 +4394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>385</v>
       </c>
@@ -4447,7 +4457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>386</v>
       </c>
@@ -4510,7 +4520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>389</v>
       </c>
@@ -4573,7 +4583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>392</v>
       </c>
@@ -4636,7 +4646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>394</v>
       </c>
@@ -4699,7 +4709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>406</v>
       </c>
@@ -4762,7 +4772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>412</v>
       </c>
@@ -4825,7 +4835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>417</v>
       </c>
@@ -4888,7 +4898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>421</v>
       </c>
@@ -4951,7 +4961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>422</v>
       </c>
@@ -5014,7 +5024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>439</v>
       </c>
@@ -5077,7 +5087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>450</v>
       </c>
@@ -5140,7 +5150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>453</v>
       </c>
@@ -5203,7 +5213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>458</v>
       </c>
@@ -5266,7 +5276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>464</v>
       </c>
@@ -5329,7 +5339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>469</v>
       </c>
@@ -5392,7 +5402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>470</v>
       </c>
@@ -5455,7 +5465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>473</v>
       </c>
@@ -5518,7 +5528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>479</v>
       </c>
@@ -5581,7 +5591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>482</v>
       </c>
@@ -5644,7 +5654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>484</v>
       </c>
@@ -5707,7 +5717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>487</v>
       </c>
@@ -5770,7 +5780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>491</v>
       </c>
@@ -5833,7 +5843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>493</v>
       </c>
@@ -5896,7 +5906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>496</v>
       </c>
@@ -5959,7 +5969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>503</v>
       </c>
@@ -6022,7 +6032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>506</v>
       </c>
@@ -6085,7 +6095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>514</v>
       </c>
@@ -6148,7 +6158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>518</v>
       </c>
@@ -6211,7 +6221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>519</v>
       </c>
@@ -6274,7 +6284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>520</v>
       </c>
@@ -6337,7 +6347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>521</v>
       </c>
@@ -6400,7 +6410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>523</v>
       </c>
@@ -6463,7 +6473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>524</v>
       </c>
@@ -6526,7 +6536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>526</v>
       </c>
@@ -6589,7 +6599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>528</v>
       </c>
@@ -6652,7 +6662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>535</v>
       </c>
@@ -6715,7 +6725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>536</v>
       </c>
@@ -6778,7 +6788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>538</v>
       </c>
@@ -6841,7 +6851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>540</v>
       </c>
@@ -6904,7 +6914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>543</v>
       </c>
@@ -6967,7 +6977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>552</v>
       </c>
@@ -7030,7 +7040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>555</v>
       </c>
@@ -7093,7 +7103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>557</v>
       </c>
@@ -7156,7 +7166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>560</v>
       </c>
@@ -7218,8 +7228,11 @@
       <c r="T108" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V108">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>561</v>
       </c>

--- a/Test Hypothesis WIth Data/AdvancedTestHypothesis/CaseStudy-Graded/Graded Assignment Dataset- Statistics.xlsx
+++ b/Test Hypothesis WIth Data/AdvancedTestHypothesis/CaseStudy-Graded/Graded Assignment Dataset- Statistics.xlsx
@@ -9,13 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BJ$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$BK$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$H$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$H$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="23">
   <si>
     <t xml:space="preserve">CusId </t>
   </si>
@@ -91,6 +95,12 @@
   <si>
     <t>NA</t>
   </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
 </sst>
 </file>
 
@@ -113,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -121,13 +131,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,95 +434,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:U113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <f>IF(D2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>IF(E2&gt;0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -505,29 +528,29 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
       <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2">
         <v>790</v>
       </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
       <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
       <c r="Q2" t="s">
         <v>20</v>
       </c>
@@ -540,30 +563,30 @@
       <c r="T2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>39</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>8100</v>
       </c>
-      <c r="E3">
-        <f>IF(D3&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <f>IF(E3&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
       <c r="H3" t="s">
         <v>20</v>
       </c>
@@ -579,21 +602,21 @@
       <c r="L3" t="s">
         <v>20</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3">
         <v>456</v>
       </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
       <c r="O3" t="s">
         <v>20</v>
       </c>
       <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" t="s">
-        <v>20</v>
-      </c>
       <c r="R3" t="s">
         <v>20</v>
       </c>
@@ -603,26 +626,26 @@
       <c r="T3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="U3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>40</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>660</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E67" si="0">IF(D4&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="0">IF(E4&gt;0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -634,20 +657,20 @@
         <v>20</v>
       </c>
       <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4">
         <v>633</v>
       </c>
-      <c r="N4" t="s">
-        <v>20</v>
-      </c>
       <c r="O4" t="s">
         <v>20</v>
       </c>
@@ -666,30 +689,27 @@
       <c r="T4" t="s">
         <v>20</v>
       </c>
-      <c r="V4">
-        <v>589.77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="U4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>47</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" t="s">
         <v>20</v>
       </c>
@@ -700,23 +720,23 @@
         <v>20</v>
       </c>
       <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
         <v>9</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>10</v>
       </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5">
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5">
         <v>232</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>13</v>
       </c>
-      <c r="O5" t="s">
-        <v>20</v>
-      </c>
       <c r="P5" t="s">
         <v>20</v>
       </c>
@@ -732,33 +752,30 @@
       <c r="T5" t="s">
         <v>20</v>
       </c>
-      <c r="V5">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="U5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>55</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
       <c r="H6" t="s">
         <v>20</v>
       </c>
@@ -774,18 +791,18 @@
       <c r="L6" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="1">
         <v>1763</v>
       </c>
-      <c r="N6" t="s">
-        <v>20</v>
-      </c>
       <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" t="s">
         <v>14</v>
       </c>
-      <c r="P6" t="s">
-        <v>20</v>
-      </c>
       <c r="Q6" t="s">
         <v>20</v>
       </c>
@@ -798,58 +815,54 @@
       <c r="T6" t="s">
         <v>20</v>
       </c>
-      <c r="V6" t="e">
-        <f>CHITEST(D2:D109,V5)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="U6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>64</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>9</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>808</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>8</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>9</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>10</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>1379</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>13</v>
       </c>
-      <c r="O7" t="s">
-        <v>20</v>
-      </c>
       <c r="P7" t="s">
         <v>20</v>
       </c>
@@ -865,57 +878,57 @@
       <c r="T7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="U7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>84</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>550</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
       <c r="G8" t="s">
         <v>20</v>
       </c>
       <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>8</v>
       </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
       <c r="K8" t="s">
         <v>20</v>
       </c>
       <c r="L8" t="s">
         <v>20</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8">
         <v>830</v>
       </c>
-      <c r="N8" t="s">
-        <v>20</v>
-      </c>
       <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
         <v>14</v>
       </c>
-      <c r="P8" t="s">
-        <v>20</v>
-      </c>
       <c r="Q8" t="s">
         <v>20</v>
       </c>
@@ -928,30 +941,30 @@
       <c r="T8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="U8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>106</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>922</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
       <c r="H9" t="s">
         <v>20</v>
       </c>
@@ -967,18 +980,18 @@
       <c r="L9" t="s">
         <v>20</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9">
         <v>606</v>
       </c>
-      <c r="N9" t="s">
-        <v>20</v>
-      </c>
       <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
         <v>14</v>
       </c>
-      <c r="P9" t="s">
-        <v>20</v>
-      </c>
       <c r="Q9" t="s">
         <v>20</v>
       </c>
@@ -991,33 +1004,33 @@
       <c r="T9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="U9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>115</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>45</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
       <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
         <v>6</v>
       </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
       <c r="I10" t="s">
         <v>20</v>
       </c>
@@ -1030,12 +1043,12 @@
       <c r="L10" t="s">
         <v>20</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10">
         <v>304</v>
       </c>
-      <c r="N10" t="s">
-        <v>20</v>
-      </c>
       <c r="O10" t="s">
         <v>20</v>
       </c>
@@ -1054,51 +1067,51 @@
       <c r="T10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="U10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>129</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>6981</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
       <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
         <v>6</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>7</v>
       </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
       <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
         <v>9</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11">
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11">
         <v>835</v>
       </c>
-      <c r="N11" t="s">
-        <v>20</v>
-      </c>
       <c r="O11" t="s">
         <v>20</v>
       </c>
@@ -1117,27 +1130,27 @@
       <c r="T11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="U11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>145</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>270</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
       <c r="G12" t="s">
         <v>20</v>
       </c>
@@ -1148,26 +1161,26 @@
         <v>20</v>
       </c>
       <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
         <v>9</v>
       </c>
-      <c r="K12" t="s">
-        <v>20</v>
-      </c>
       <c r="L12" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="1">
         <v>1087</v>
       </c>
-      <c r="N12" t="s">
-        <v>20</v>
-      </c>
       <c r="O12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" t="s">
         <v>14</v>
       </c>
-      <c r="P12" t="s">
-        <v>20</v>
-      </c>
       <c r="Q12" t="s">
         <v>20</v>
       </c>
@@ -1180,33 +1193,33 @@
       <c r="T12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="U12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>157</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
       <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
         <v>6</v>
       </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
       <c r="I13" t="s">
         <v>20</v>
       </c>
@@ -1219,18 +1232,18 @@
       <c r="L13" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="1">
         <v>1156</v>
       </c>
-      <c r="N13" t="s">
-        <v>20</v>
-      </c>
       <c r="O13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" t="s">
         <v>14</v>
       </c>
-      <c r="P13" t="s">
-        <v>20</v>
-      </c>
       <c r="Q13" t="s">
         <v>20</v>
       </c>
@@ -1243,27 +1256,27 @@
       <c r="T13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="U13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>159</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>1599</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
       <c r="G14" t="s">
         <v>20</v>
       </c>
@@ -1277,23 +1290,23 @@
         <v>20</v>
       </c>
       <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
         <v>10</v>
       </c>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14">
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14">
         <v>290</v>
       </c>
-      <c r="N14" t="s">
-        <v>20</v>
-      </c>
       <c r="O14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" t="s">
         <v>14</v>
       </c>
-      <c r="P14" t="s">
-        <v>20</v>
-      </c>
       <c r="Q14" t="s">
         <v>20</v>
       </c>
@@ -1306,30 +1319,30 @@
       <c r="T14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="U14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>208</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>5</v>
       </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
       <c r="H15" t="s">
         <v>20</v>
       </c>
@@ -1337,29 +1350,29 @@
         <v>20</v>
       </c>
       <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
         <v>9</v>
       </c>
-      <c r="K15" t="s">
-        <v>20</v>
-      </c>
       <c r="L15" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="1">
         <v>1725</v>
       </c>
-      <c r="N15" t="s">
-        <v>20</v>
-      </c>
       <c r="O15" t="s">
         <v>20</v>
       </c>
       <c r="P15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" t="s">
         <v>15</v>
       </c>
-      <c r="Q15" t="s">
-        <v>20</v>
-      </c>
       <c r="R15" t="s">
         <v>20</v>
       </c>
@@ -1369,36 +1382,36 @@
       <c r="T15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="U15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>211</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
       <c r="G16" t="s">
         <v>20</v>
       </c>
       <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
         <v>7</v>
       </c>
-      <c r="I16" t="s">
-        <v>20</v>
-      </c>
       <c r="J16" t="s">
         <v>20</v>
       </c>
@@ -1408,18 +1421,18 @@
       <c r="L16" t="s">
         <v>20</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16">
         <v>364</v>
       </c>
-      <c r="N16" t="s">
-        <v>20</v>
-      </c>
       <c r="O16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" t="s">
         <v>14</v>
       </c>
-      <c r="P16" t="s">
-        <v>20</v>
-      </c>
       <c r="Q16" t="s">
         <v>20</v>
       </c>
@@ -1432,54 +1445,54 @@
       <c r="T16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="U16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>214</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>15</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>569</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>5</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>6</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>8</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>9</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>10</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>11</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>463</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>13</v>
       </c>
-      <c r="O17" t="s">
-        <v>20</v>
-      </c>
       <c r="P17" t="s">
         <v>20</v>
       </c>
@@ -1495,27 +1508,27 @@
       <c r="T17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="U17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>218</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>320</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
       <c r="G18" t="s">
         <v>20</v>
       </c>
@@ -1532,14 +1545,14 @@
         <v>20</v>
       </c>
       <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>2320</v>
       </c>
-      <c r="N18" t="s">
-        <v>20</v>
-      </c>
       <c r="O18" t="s">
         <v>20</v>
       </c>
@@ -1558,33 +1571,33 @@
       <c r="T18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="U18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>219</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>160</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
       <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
         <v>6</v>
       </c>
-      <c r="H19" t="s">
-        <v>20</v>
-      </c>
       <c r="I19" t="s">
         <v>20</v>
       </c>
@@ -1592,23 +1605,23 @@
         <v>20</v>
       </c>
       <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" t="s">
         <v>10</v>
       </c>
-      <c r="L19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="1">
+      <c r="M19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="1">
         <v>1165</v>
       </c>
-      <c r="N19" t="s">
-        <v>20</v>
-      </c>
       <c r="O19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" t="s">
         <v>14</v>
       </c>
-      <c r="P19" t="s">
-        <v>20</v>
-      </c>
       <c r="Q19" t="s">
         <v>20</v>
       </c>
@@ -1621,30 +1634,30 @@
       <c r="T19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="U19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>220</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>490</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>5</v>
       </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
       <c r="H20" t="s">
         <v>20</v>
       </c>
@@ -1660,15 +1673,15 @@
       <c r="L20" t="s">
         <v>20</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20">
         <v>566</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>13</v>
       </c>
-      <c r="O20" t="s">
-        <v>20</v>
-      </c>
       <c r="P20" t="s">
         <v>20</v>
       </c>
@@ -1684,33 +1697,33 @@
       <c r="T20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="U20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>221</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>1440</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F21" t="s">
-        <v>20</v>
-      </c>
       <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
         <v>6</v>
       </c>
-      <c r="H21" t="s">
-        <v>20</v>
-      </c>
       <c r="I21" t="s">
         <v>20</v>
       </c>
@@ -1718,17 +1731,17 @@
         <v>20</v>
       </c>
       <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
         <v>10</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>11</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>194</v>
       </c>
-      <c r="N21" t="s">
-        <v>20</v>
-      </c>
       <c r="O21" t="s">
         <v>20</v>
       </c>
@@ -1747,33 +1760,33 @@
       <c r="T21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="U21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>224</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>2</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
       <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>255</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
       <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
         <v>6</v>
       </c>
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
       <c r="I22" t="s">
         <v>20</v>
       </c>
@@ -1781,17 +1794,17 @@
         <v>20</v>
       </c>
       <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
         <v>10</v>
       </c>
-      <c r="L22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="1">
+      <c r="M22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="1">
         <v>1107</v>
       </c>
-      <c r="N22" t="s">
-        <v>20</v>
-      </c>
       <c r="O22" t="s">
         <v>20</v>
       </c>
@@ -1802,35 +1815,35 @@
         <v>20</v>
       </c>
       <c r="R22" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" t="s">
         <v>17</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>18</v>
       </c>
-      <c r="T22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="U22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>232</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>123.33333330000001</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F23" t="s">
-        <v>20</v>
-      </c>
       <c r="G23" t="s">
         <v>20</v>
       </c>
@@ -1841,20 +1854,20 @@
         <v>20</v>
       </c>
       <c r="J23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s">
         <v>9</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>10</v>
       </c>
-      <c r="L23" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="1">
+      <c r="M23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="1">
         <v>2114</v>
       </c>
-      <c r="N23" t="s">
-        <v>20</v>
-      </c>
       <c r="O23" t="s">
         <v>20</v>
       </c>
@@ -1862,44 +1875,44 @@
         <v>20</v>
       </c>
       <c r="Q23" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" t="s">
         <v>16</v>
       </c>
-      <c r="R23" t="s">
-        <v>20</v>
-      </c>
       <c r="S23" t="s">
         <v>20</v>
       </c>
       <c r="T23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="U23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>240</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>899</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
       <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
         <v>6</v>
       </c>
-      <c r="H24" t="s">
-        <v>20</v>
-      </c>
       <c r="I24" t="s">
         <v>20</v>
       </c>
@@ -1912,18 +1925,18 @@
       <c r="L24" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="1">
         <v>1138</v>
       </c>
-      <c r="N24" t="s">
-        <v>20</v>
-      </c>
       <c r="O24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" t="s">
         <v>14</v>
       </c>
-      <c r="P24" t="s">
-        <v>20</v>
-      </c>
       <c r="Q24" t="s">
         <v>20</v>
       </c>
@@ -1936,54 +1949,54 @@
       <c r="T24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="U24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>243</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>8</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>4</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>168</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>5</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>6</v>
       </c>
-      <c r="H25" t="s">
-        <v>20</v>
-      </c>
       <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
         <v>8</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>9</v>
       </c>
-      <c r="K25" t="s">
-        <v>20</v>
-      </c>
       <c r="L25" t="s">
         <v>20</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25">
         <v>644</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>13</v>
       </c>
-      <c r="O25" t="s">
-        <v>20</v>
-      </c>
       <c r="P25" t="s">
         <v>20</v>
       </c>
@@ -1999,54 +2012,54 @@
       <c r="T25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="U25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>247</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>5</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>3</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1188</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F26" t="s">
-        <v>20</v>
-      </c>
       <c r="G26" t="s">
         <v>20</v>
       </c>
       <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
         <v>7</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>8</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>9</v>
       </c>
-      <c r="K26" t="s">
-        <v>20</v>
-      </c>
       <c r="L26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" t="s">
         <v>11</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>877</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>13</v>
       </c>
-      <c r="O26" t="s">
-        <v>20</v>
-      </c>
       <c r="P26" t="s">
         <v>20</v>
       </c>
@@ -2062,27 +2075,27 @@
       <c r="T26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="U26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27">
         <v>248</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>299</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F27" t="s">
-        <v>20</v>
-      </c>
       <c r="G27" t="s">
         <v>20</v>
       </c>
@@ -2099,14 +2112,14 @@
         <v>20</v>
       </c>
       <c r="L27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" t="s">
         <v>11</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>662</v>
       </c>
-      <c r="N27" t="s">
-        <v>20</v>
-      </c>
       <c r="O27" t="s">
         <v>20</v>
       </c>
@@ -2125,27 +2138,27 @@
       <c r="T27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="U27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B28">
         <v>254</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
       <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>599</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F28" t="s">
-        <v>20</v>
-      </c>
       <c r="G28" t="s">
         <v>20</v>
       </c>
@@ -2156,20 +2169,20 @@
         <v>20</v>
       </c>
       <c r="J28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s">
         <v>9</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>10</v>
       </c>
-      <c r="L28" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28">
+      <c r="M28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28">
         <v>332</v>
       </c>
-      <c r="N28" t="s">
-        <v>20</v>
-      </c>
       <c r="O28" t="s">
         <v>20</v>
       </c>
@@ -2180,62 +2193,62 @@
         <v>20</v>
       </c>
       <c r="R28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" t="s">
         <v>17</v>
       </c>
-      <c r="S28" t="s">
-        <v>20</v>
-      </c>
       <c r="T28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="U28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>256</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>16</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>5</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>518</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>5</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>6</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>7</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>8</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>9</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>10</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>11</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>819</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>13</v>
       </c>
-      <c r="O29" t="s">
-        <v>20</v>
-      </c>
       <c r="P29" t="s">
         <v>20</v>
       </c>
@@ -2251,51 +2264,51 @@
       <c r="T29" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="U29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>258</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>2</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" t="s">
-        <v>20</v>
-      </c>
       <c r="G30" t="s">
         <v>20</v>
       </c>
       <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
         <v>7</v>
       </c>
-      <c r="I30" t="s">
-        <v>20</v>
-      </c>
       <c r="J30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
         <v>9</v>
       </c>
-      <c r="K30" t="s">
-        <v>20</v>
-      </c>
       <c r="L30" t="s">
         <v>20</v>
       </c>
-      <c r="M30">
+      <c r="M30" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30">
         <v>318</v>
       </c>
-      <c r="N30" t="s">
-        <v>20</v>
-      </c>
       <c r="O30" t="s">
         <v>20</v>
       </c>
@@ -2306,62 +2319,62 @@
         <v>20</v>
       </c>
       <c r="R30" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" t="s">
         <v>17</v>
       </c>
-      <c r="S30" t="s">
-        <v>20</v>
-      </c>
       <c r="T30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="U30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31">
         <v>262</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>3</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>2908</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F31" t="s">
-        <v>20</v>
-      </c>
       <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
         <v>6</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>7</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>8</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>9</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>10</v>
       </c>
-      <c r="L31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31">
+      <c r="M31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31">
         <v>865</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>13</v>
       </c>
-      <c r="O31" t="s">
-        <v>20</v>
-      </c>
       <c r="P31" t="s">
         <v>20</v>
       </c>
@@ -2377,30 +2390,30 @@
       <c r="T31" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="U31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32">
         <v>263</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>5</v>
       </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
       <c r="H32" t="s">
         <v>20</v>
       </c>
@@ -2416,12 +2429,12 @@
       <c r="L32" t="s">
         <v>20</v>
       </c>
-      <c r="M32">
+      <c r="M32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32">
         <v>541</v>
       </c>
-      <c r="N32" t="s">
-        <v>20</v>
-      </c>
       <c r="O32" t="s">
         <v>20</v>
       </c>
@@ -2432,38 +2445,38 @@
         <v>20</v>
       </c>
       <c r="R32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S32" t="s">
         <v>17</v>
       </c>
-      <c r="S32" t="s">
-        <v>20</v>
-      </c>
       <c r="T32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="U32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33">
         <v>267</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>3</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>5</v>
       </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
       <c r="H33" t="s">
         <v>20</v>
       </c>
@@ -2477,20 +2490,20 @@
         <v>20</v>
       </c>
       <c r="L33" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" t="s">
         <v>11</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>808</v>
       </c>
-      <c r="N33" t="s">
-        <v>20</v>
-      </c>
       <c r="O33" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" t="s">
         <v>14</v>
       </c>
-      <c r="P33" t="s">
-        <v>20</v>
-      </c>
       <c r="Q33" t="s">
         <v>20</v>
       </c>
@@ -2503,54 +2516,54 @@
       <c r="T33" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="U33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>275</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>8</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>4</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>287</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>5</v>
       </c>
-      <c r="G34" t="s">
-        <v>20</v>
-      </c>
       <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
         <v>7</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>8</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>9</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>10</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>11</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>440</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>13</v>
       </c>
-      <c r="O34" t="s">
-        <v>20</v>
-      </c>
       <c r="P34" t="s">
         <v>20</v>
       </c>
@@ -2566,54 +2579,54 @@
       <c r="T34" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="U34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35">
         <v>276</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" t="s">
-        <v>20</v>
-      </c>
       <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
         <v>6</v>
       </c>
-      <c r="H35" t="s">
-        <v>20</v>
-      </c>
       <c r="I35" t="s">
         <v>20</v>
       </c>
       <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s">
         <v>9</v>
       </c>
-      <c r="K35" t="s">
-        <v>20</v>
-      </c>
       <c r="L35" t="s">
         <v>20</v>
       </c>
-      <c r="M35">
+      <c r="M35" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35">
         <v>412</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>13</v>
       </c>
-      <c r="O35" t="s">
-        <v>20</v>
-      </c>
       <c r="P35" t="s">
         <v>20</v>
       </c>
@@ -2629,27 +2642,27 @@
       <c r="T35" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="U35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B36">
         <v>278</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
         <v>359.5</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F36" t="s">
-        <v>20</v>
-      </c>
       <c r="G36" t="s">
         <v>20</v>
       </c>
@@ -2657,23 +2670,23 @@
         <v>20</v>
       </c>
       <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
         <v>8</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>9</v>
       </c>
-      <c r="K36" t="s">
-        <v>20</v>
-      </c>
       <c r="L36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" t="s">
         <v>11</v>
       </c>
-      <c r="M36" s="1">
+      <c r="N36" s="1">
         <v>1225</v>
       </c>
-      <c r="N36" t="s">
-        <v>20</v>
-      </c>
       <c r="O36" t="s">
         <v>20</v>
       </c>
@@ -2692,27 +2705,27 @@
       <c r="T36" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="U36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B37">
         <v>280</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>550</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F37" t="s">
-        <v>20</v>
-      </c>
       <c r="G37" t="s">
         <v>20</v>
       </c>
@@ -2726,17 +2739,17 @@
         <v>20</v>
       </c>
       <c r="K37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" t="s">
         <v>10</v>
       </c>
-      <c r="L37" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37">
+      <c r="M37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37">
         <v>202</v>
       </c>
-      <c r="N37" t="s">
-        <v>20</v>
-      </c>
       <c r="O37" t="s">
         <v>20</v>
       </c>
@@ -2755,27 +2768,27 @@
       <c r="T37" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="U37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38">
         <v>291</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
         <v>299</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F38" t="s">
-        <v>20</v>
-      </c>
       <c r="G38" t="s">
         <v>20</v>
       </c>
@@ -2786,20 +2799,20 @@
         <v>20</v>
       </c>
       <c r="J38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" t="s">
         <v>9</v>
       </c>
-      <c r="K38" t="s">
-        <v>20</v>
-      </c>
       <c r="L38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" t="s">
         <v>11</v>
       </c>
-      <c r="M38" s="1">
+      <c r="N38" s="1">
         <v>1124</v>
       </c>
-      <c r="N38" t="s">
-        <v>20</v>
-      </c>
       <c r="O38" t="s">
         <v>20</v>
       </c>
@@ -2813,59 +2826,59 @@
         <v>20</v>
       </c>
       <c r="S38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" t="s">
         <v>18</v>
       </c>
-      <c r="T38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="U38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B39">
         <v>296</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>11</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>6</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>222</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>5</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>6</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>7</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>8</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>9</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>10</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>11</v>
       </c>
-      <c r="M39" s="1">
+      <c r="N39" s="1">
         <v>1028</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>13</v>
       </c>
-      <c r="O39" t="s">
-        <v>20</v>
-      </c>
       <c r="P39" t="s">
         <v>20</v>
       </c>
@@ -2881,54 +2894,54 @@
       <c r="T39" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="U39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B40">
         <v>300</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>12</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>7</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>646</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>5</v>
       </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
       <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s">
         <v>7</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>8</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>9</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>10</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>11</v>
       </c>
-      <c r="M40" s="1">
+      <c r="N40" s="1">
         <v>1666</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>13</v>
       </c>
-      <c r="O40" t="s">
-        <v>20</v>
-      </c>
       <c r="P40" t="s">
         <v>20</v>
       </c>
@@ -2944,57 +2957,57 @@
       <c r="T40" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="U40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B41">
         <v>301</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>8</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>4</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>184</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>5</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>6</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>7</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>8</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>9</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>10</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>11</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>896</v>
       </c>
-      <c r="N41" t="s">
-        <v>20</v>
-      </c>
       <c r="O41" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" t="s">
         <v>14</v>
       </c>
-      <c r="P41" t="s">
-        <v>20</v>
-      </c>
       <c r="Q41" t="s">
         <v>20</v>
       </c>
@@ -3007,30 +3020,30 @@
       <c r="T41" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="U41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B42">
         <v>310</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
         <v>150</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>5</v>
       </c>
-      <c r="G42" t="s">
-        <v>20</v>
-      </c>
       <c r="H42" t="s">
         <v>20</v>
       </c>
@@ -3046,21 +3059,21 @@
       <c r="L42" t="s">
         <v>20</v>
       </c>
-      <c r="M42">
+      <c r="M42" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42">
         <v>213</v>
       </c>
-      <c r="N42" t="s">
-        <v>20</v>
-      </c>
       <c r="O42" t="s">
         <v>20</v>
       </c>
       <c r="P42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" t="s">
         <v>15</v>
       </c>
-      <c r="Q42" t="s">
-        <v>20</v>
-      </c>
       <c r="R42" t="s">
         <v>20</v>
       </c>
@@ -3070,36 +3083,36 @@
       <c r="T42" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="U42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B43">
         <v>312</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F43" t="s">
-        <v>20</v>
-      </c>
       <c r="G43" t="s">
         <v>20</v>
       </c>
       <c r="H43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s">
         <v>7</v>
       </c>
-      <c r="I43" t="s">
-        <v>20</v>
-      </c>
       <c r="J43" t="s">
         <v>20</v>
       </c>
@@ -3109,21 +3122,21 @@
       <c r="L43" t="s">
         <v>20</v>
       </c>
-      <c r="M43">
+      <c r="M43" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43">
         <v>442</v>
       </c>
-      <c r="N43" t="s">
-        <v>20</v>
-      </c>
       <c r="O43" t="s">
         <v>20</v>
       </c>
       <c r="P43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" t="s">
         <v>15</v>
       </c>
-      <c r="Q43" t="s">
-        <v>20</v>
-      </c>
       <c r="R43" t="s">
         <v>20</v>
       </c>
@@ -3133,27 +3146,27 @@
       <c r="T43" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="U43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B44">
         <v>319</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
         <v>699</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F44" t="s">
-        <v>20</v>
-      </c>
       <c r="G44" t="s">
         <v>20</v>
       </c>
@@ -3167,17 +3180,17 @@
         <v>20</v>
       </c>
       <c r="K44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" t="s">
         <v>10</v>
       </c>
-      <c r="L44" t="s">
-        <v>20</v>
-      </c>
-      <c r="M44">
+      <c r="M44" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44">
         <v>852</v>
       </c>
-      <c r="N44" t="s">
-        <v>20</v>
-      </c>
       <c r="O44" t="s">
         <v>20</v>
       </c>
@@ -3191,32 +3204,32 @@
         <v>20</v>
       </c>
       <c r="S44" t="s">
+        <v>20</v>
+      </c>
+      <c r="T44" t="s">
         <v>18</v>
       </c>
-      <c r="T44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="U44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B45">
         <v>320</v>
       </c>
-      <c r="B45" t="s">
-        <v>20</v>
-      </c>
       <c r="C45" t="s">
         <v>20</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45">
         <v>399</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F45" t="s">
-        <v>20</v>
-      </c>
       <c r="G45" t="s">
         <v>20</v>
       </c>
@@ -3233,20 +3246,20 @@
         <v>20</v>
       </c>
       <c r="L45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" t="s">
         <v>11</v>
       </c>
-      <c r="M45" s="1">
+      <c r="N45" s="1">
         <v>1280</v>
       </c>
-      <c r="N45" t="s">
-        <v>20</v>
-      </c>
       <c r="O45" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" t="s">
         <v>14</v>
       </c>
-      <c r="P45" t="s">
-        <v>20</v>
-      </c>
       <c r="Q45" t="s">
         <v>20</v>
       </c>
@@ -3259,33 +3272,33 @@
       <c r="T45" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="U45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B46">
         <v>325</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
         <v>980</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F46" t="s">
-        <v>20</v>
-      </c>
       <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" t="s">
         <v>6</v>
       </c>
-      <c r="H46" t="s">
-        <v>20</v>
-      </c>
       <c r="I46" t="s">
         <v>20</v>
       </c>
@@ -3298,18 +3311,18 @@
       <c r="L46" t="s">
         <v>20</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="1">
         <v>1609</v>
       </c>
-      <c r="N46" t="s">
-        <v>20</v>
-      </c>
       <c r="O46" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" t="s">
         <v>14</v>
       </c>
-      <c r="P46" t="s">
-        <v>20</v>
-      </c>
       <c r="Q46" t="s">
         <v>20</v>
       </c>
@@ -3322,27 +3335,27 @@
       <c r="T46" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="U46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B47">
         <v>337</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F47" t="s">
-        <v>20</v>
-      </c>
       <c r="G47" t="s">
         <v>20</v>
       </c>
@@ -3350,23 +3363,23 @@
         <v>20</v>
       </c>
       <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s">
         <v>8</v>
       </c>
-      <c r="J47" t="s">
-        <v>20</v>
-      </c>
       <c r="K47" t="s">
         <v>20</v>
       </c>
       <c r="L47" t="s">
         <v>20</v>
       </c>
-      <c r="M47">
+      <c r="M47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47">
         <v>600</v>
       </c>
-      <c r="N47" t="s">
-        <v>20</v>
-      </c>
       <c r="O47" t="s">
         <v>20</v>
       </c>
@@ -3385,30 +3398,30 @@
       <c r="T47" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="U47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B48">
         <v>338</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
         <v>160</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>5</v>
       </c>
-      <c r="G48" t="s">
-        <v>20</v>
-      </c>
       <c r="H48" t="s">
         <v>20</v>
       </c>
@@ -3424,21 +3437,21 @@
       <c r="L48" t="s">
         <v>20</v>
       </c>
-      <c r="M48">
+      <c r="M48" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48">
         <v>376</v>
       </c>
-      <c r="N48" t="s">
-        <v>20</v>
-      </c>
       <c r="O48" t="s">
         <v>20</v>
       </c>
       <c r="P48" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" t="s">
         <v>15</v>
       </c>
-      <c r="Q48" t="s">
-        <v>20</v>
-      </c>
       <c r="R48" t="s">
         <v>20</v>
       </c>
@@ -3448,27 +3461,27 @@
       <c r="T48" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="U48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B49">
         <v>340</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
         <v>791</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F49" t="s">
-        <v>20</v>
-      </c>
       <c r="G49" t="s">
         <v>20</v>
       </c>
@@ -3476,26 +3489,26 @@
         <v>20</v>
       </c>
       <c r="I49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s">
         <v>8</v>
       </c>
-      <c r="J49" t="s">
-        <v>20</v>
-      </c>
       <c r="K49" t="s">
         <v>20</v>
       </c>
       <c r="L49" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="1">
         <v>1583</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>13</v>
       </c>
-      <c r="O49" t="s">
-        <v>20</v>
-      </c>
       <c r="P49" t="s">
         <v>20</v>
       </c>
@@ -3511,33 +3524,33 @@
       <c r="T49" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="U49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B50">
         <v>341</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>2</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
       <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
         <v>160</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>5</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>6</v>
       </c>
-      <c r="H50" t="s">
-        <v>20</v>
-      </c>
       <c r="I50" t="s">
         <v>20</v>
       </c>
@@ -3550,18 +3563,18 @@
       <c r="L50" t="s">
         <v>20</v>
       </c>
-      <c r="M50">
+      <c r="M50" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50">
         <v>252</v>
       </c>
-      <c r="N50" t="s">
-        <v>20</v>
-      </c>
       <c r="O50" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" t="s">
         <v>14</v>
       </c>
-      <c r="P50" t="s">
-        <v>20</v>
-      </c>
       <c r="Q50" t="s">
         <v>20</v>
       </c>
@@ -3574,27 +3587,27 @@
       <c r="T50" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="U50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B51">
         <v>343</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
         <v>120</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F51" t="s">
-        <v>20</v>
-      </c>
       <c r="G51" t="s">
         <v>20</v>
       </c>
@@ -3605,20 +3618,20 @@
         <v>20</v>
       </c>
       <c r="J51" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" t="s">
         <v>9</v>
       </c>
-      <c r="K51" t="s">
-        <v>20</v>
-      </c>
       <c r="L51" t="s">
         <v>20</v>
       </c>
-      <c r="M51">
+      <c r="M51" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51">
         <v>53</v>
       </c>
-      <c r="N51" t="s">
-        <v>20</v>
-      </c>
       <c r="O51" t="s">
         <v>20</v>
       </c>
@@ -3635,62 +3648,62 @@
         <v>20</v>
       </c>
       <c r="T51" t="s">
+        <v>20</v>
+      </c>
+      <c r="U51" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B52">
         <v>344</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
         <v>708</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F52" t="s">
-        <v>20</v>
-      </c>
       <c r="G52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s">
         <v>6</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>7</v>
       </c>
-      <c r="I52" t="s">
-        <v>20</v>
-      </c>
       <c r="J52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" t="s">
         <v>9</v>
       </c>
-      <c r="K52" t="s">
-        <v>20</v>
-      </c>
       <c r="L52" t="s">
         <v>20</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="1">
         <v>1160</v>
       </c>
-      <c r="N52" t="s">
-        <v>20</v>
-      </c>
       <c r="O52" t="s">
         <v>20</v>
       </c>
       <c r="P52" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" t="s">
         <v>15</v>
       </c>
-      <c r="Q52" t="s">
-        <v>20</v>
-      </c>
       <c r="R52" t="s">
         <v>20</v>
       </c>
@@ -3700,27 +3713,27 @@
       <c r="T52" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="U52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B53">
         <v>345</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
         <v>580</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F53" t="s">
-        <v>20</v>
-      </c>
       <c r="G53" t="s">
         <v>20</v>
       </c>
@@ -3737,20 +3750,20 @@
         <v>20</v>
       </c>
       <c r="L53" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" t="s">
         <v>11</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>520</v>
       </c>
-      <c r="N53" t="s">
-        <v>20</v>
-      </c>
       <c r="O53" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" t="s">
         <v>14</v>
       </c>
-      <c r="P53" t="s">
-        <v>20</v>
-      </c>
       <c r="Q53" t="s">
         <v>20</v>
       </c>
@@ -3763,33 +3776,33 @@
       <c r="T53" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="U53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B54">
         <v>353</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>2</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
       <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
         <v>490</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F54" t="s">
-        <v>20</v>
-      </c>
       <c r="G54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" t="s">
         <v>6</v>
       </c>
-      <c r="H54" t="s">
-        <v>20</v>
-      </c>
       <c r="I54" t="s">
         <v>20</v>
       </c>
@@ -3800,14 +3813,14 @@
         <v>20</v>
       </c>
       <c r="L54" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" t="s">
         <v>11</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>464</v>
       </c>
-      <c r="N54" t="s">
-        <v>20</v>
-      </c>
       <c r="O54" t="s">
         <v>20</v>
       </c>
@@ -3826,57 +3839,57 @@
       <c r="T54" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="U54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B55">
         <v>364</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>3</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
       <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
         <v>299</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>5</v>
       </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
       <c r="H55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" t="s">
         <v>7</v>
       </c>
-      <c r="I55" t="s">
-        <v>20</v>
-      </c>
       <c r="J55" t="s">
         <v>20</v>
       </c>
       <c r="K55" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" t="s">
         <v>10</v>
       </c>
-      <c r="L55" t="s">
-        <v>20</v>
-      </c>
-      <c r="M55">
+      <c r="M55" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55">
         <v>482</v>
       </c>
-      <c r="N55" t="s">
-        <v>20</v>
-      </c>
       <c r="O55" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" t="s">
         <v>14</v>
       </c>
-      <c r="P55" t="s">
-        <v>20</v>
-      </c>
       <c r="Q55" t="s">
         <v>20</v>
       </c>
@@ -3889,27 +3902,27 @@
       <c r="T55" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="U55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B56">
         <v>365</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F56" t="s">
-        <v>20</v>
-      </c>
       <c r="G56" t="s">
         <v>20</v>
       </c>
@@ -3917,29 +3930,29 @@
         <v>20</v>
       </c>
       <c r="I56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
         <v>8</v>
       </c>
-      <c r="J56" t="s">
-        <v>20</v>
-      </c>
       <c r="K56" t="s">
         <v>20</v>
       </c>
       <c r="L56" t="s">
         <v>20</v>
       </c>
-      <c r="M56">
+      <c r="M56" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56">
         <v>129</v>
       </c>
-      <c r="N56" t="s">
-        <v>20</v>
-      </c>
       <c r="O56" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" t="s">
         <v>14</v>
       </c>
-      <c r="P56" t="s">
-        <v>20</v>
-      </c>
       <c r="Q56" t="s">
         <v>20</v>
       </c>
@@ -3952,30 +3965,30 @@
       <c r="T56" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="U56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B57">
         <v>366</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
         <v>1600</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>5</v>
       </c>
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
       <c r="H57" t="s">
         <v>20</v>
       </c>
@@ -3991,12 +4004,12 @@
       <c r="L57" t="s">
         <v>20</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="1">
         <v>1373</v>
       </c>
-      <c r="N57" t="s">
-        <v>20</v>
-      </c>
       <c r="O57" t="s">
         <v>20</v>
       </c>
@@ -4015,33 +4028,33 @@
       <c r="T57" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="U57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B58">
         <v>369</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>2</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F58" t="s">
-        <v>20</v>
-      </c>
       <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s">
         <v>6</v>
       </c>
-      <c r="H58" t="s">
-        <v>20</v>
-      </c>
       <c r="I58" t="s">
         <v>20</v>
       </c>
@@ -4054,21 +4067,21 @@
       <c r="L58" t="s">
         <v>20</v>
       </c>
-      <c r="M58">
+      <c r="M58" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58">
         <v>284</v>
       </c>
-      <c r="N58" t="s">
-        <v>20</v>
-      </c>
       <c r="O58" t="s">
         <v>20</v>
       </c>
       <c r="P58" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" t="s">
         <v>15</v>
       </c>
-      <c r="Q58" t="s">
-        <v>20</v>
-      </c>
       <c r="R58" t="s">
         <v>20</v>
       </c>
@@ -4078,30 +4091,30 @@
       <c r="T58" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="U58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B59">
         <v>371</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>2</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
       <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
         <v>630</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>5</v>
       </c>
-      <c r="G59" t="s">
-        <v>20</v>
-      </c>
       <c r="H59" t="s">
         <v>20</v>
       </c>
@@ -4112,23 +4125,23 @@
         <v>20</v>
       </c>
       <c r="K59" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" t="s">
         <v>10</v>
       </c>
-      <c r="L59" t="s">
-        <v>20</v>
-      </c>
-      <c r="M59">
+      <c r="M59" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59">
         <v>948</v>
       </c>
-      <c r="N59" t="s">
-        <v>20</v>
-      </c>
       <c r="O59" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" t="s">
         <v>14</v>
       </c>
-      <c r="P59" t="s">
-        <v>20</v>
-      </c>
       <c r="Q59" t="s">
         <v>20</v>
       </c>
@@ -4141,27 +4154,27 @@
       <c r="T59" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="U59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B60">
         <v>374</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>2</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
       <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
         <v>399</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F60" t="s">
-        <v>20</v>
-      </c>
       <c r="G60" t="s">
         <v>20</v>
       </c>
@@ -4175,23 +4188,23 @@
         <v>20</v>
       </c>
       <c r="K60" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" t="s">
         <v>10</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>11</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>162</v>
       </c>
-      <c r="N60" t="s">
-        <v>20</v>
-      </c>
       <c r="O60" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" t="s">
         <v>14</v>
       </c>
-      <c r="P60" t="s">
-        <v>20</v>
-      </c>
       <c r="Q60" t="s">
         <v>20</v>
       </c>
@@ -4204,54 +4217,54 @@
       <c r="T60" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="U60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B61">
         <v>379</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>7</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>3</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>578</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>5</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>6</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>7</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>8</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>9</v>
       </c>
-      <c r="K61" t="s">
-        <v>20</v>
-      </c>
       <c r="L61" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" t="s">
         <v>11</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>744</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>13</v>
       </c>
-      <c r="O61" t="s">
-        <v>20</v>
-      </c>
       <c r="P61" t="s">
         <v>20</v>
       </c>
@@ -4267,36 +4280,36 @@
       <c r="T61" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="U61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B62">
         <v>380</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>2</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
       <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
         <v>115</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F62" t="s">
-        <v>20</v>
-      </c>
       <c r="G62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" t="s">
         <v>6</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>7</v>
       </c>
-      <c r="I62" t="s">
-        <v>20</v>
-      </c>
       <c r="J62" t="s">
         <v>20</v>
       </c>
@@ -4304,20 +4317,20 @@
         <v>20</v>
       </c>
       <c r="L62" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" t="s">
         <v>11</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>712</v>
       </c>
-      <c r="N62" t="s">
-        <v>20</v>
-      </c>
       <c r="O62" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" t="s">
         <v>14</v>
       </c>
-      <c r="P62" t="s">
-        <v>20</v>
-      </c>
       <c r="Q62" t="s">
         <v>20</v>
       </c>
@@ -4330,33 +4343,33 @@
       <c r="T62" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="U62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B63">
         <v>384</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
         <v>499</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F63" t="s">
-        <v>20</v>
-      </c>
       <c r="G63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" t="s">
         <v>6</v>
       </c>
-      <c r="H63" t="s">
-        <v>20</v>
-      </c>
       <c r="I63" t="s">
         <v>20</v>
       </c>
@@ -4367,20 +4380,20 @@
         <v>20</v>
       </c>
       <c r="L63" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" t="s">
         <v>11</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>108</v>
       </c>
-      <c r="N63" t="s">
-        <v>20</v>
-      </c>
       <c r="O63" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" t="s">
         <v>14</v>
       </c>
-      <c r="P63" t="s">
-        <v>20</v>
-      </c>
       <c r="Q63" t="s">
         <v>20</v>
       </c>
@@ -4393,36 +4406,36 @@
       <c r="T63" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="U63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B64">
         <v>385</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>2</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
       <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
         <v>710</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F64" t="s">
-        <v>20</v>
-      </c>
       <c r="G64" t="s">
         <v>20</v>
       </c>
       <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s">
         <v>7</v>
       </c>
-      <c r="I64" t="s">
-        <v>20</v>
-      </c>
       <c r="J64" t="s">
         <v>20</v>
       </c>
@@ -4430,14 +4443,14 @@
         <v>20</v>
       </c>
       <c r="L64" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" t="s">
         <v>11</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>188</v>
       </c>
-      <c r="N64" t="s">
-        <v>20</v>
-      </c>
       <c r="O64" t="s">
         <v>20</v>
       </c>
@@ -4448,38 +4461,38 @@
         <v>20</v>
       </c>
       <c r="R64" t="s">
+        <v>20</v>
+      </c>
+      <c r="S64" t="s">
         <v>17</v>
       </c>
-      <c r="S64" t="s">
-        <v>20</v>
-      </c>
       <c r="T64" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="U64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B65">
         <v>386</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>3</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
       <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
         <v>257</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>5</v>
       </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
       <c r="H65" t="s">
         <v>20</v>
       </c>
@@ -4487,26 +4500,26 @@
         <v>20</v>
       </c>
       <c r="J65" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" t="s">
         <v>9</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>10</v>
       </c>
-      <c r="L65" t="s">
-        <v>20</v>
-      </c>
-      <c r="M65">
+      <c r="M65" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65">
         <v>799</v>
       </c>
-      <c r="N65" t="s">
-        <v>20</v>
-      </c>
       <c r="O65" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" t="s">
         <v>14</v>
       </c>
-      <c r="P65" t="s">
-        <v>20</v>
-      </c>
       <c r="Q65" t="s">
         <v>20</v>
       </c>
@@ -4519,30 +4532,30 @@
       <c r="T65" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="U65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B66">
         <v>389</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
       <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
         <v>2</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>114</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>5</v>
       </c>
-      <c r="G66" t="s">
-        <v>20</v>
-      </c>
       <c r="H66" t="s">
         <v>20</v>
       </c>
@@ -4556,23 +4569,23 @@
         <v>20</v>
       </c>
       <c r="L66" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" t="s">
         <v>11</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>164</v>
       </c>
-      <c r="N66" t="s">
-        <v>20</v>
-      </c>
       <c r="O66" t="s">
         <v>20</v>
       </c>
       <c r="P66" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" t="s">
         <v>15</v>
       </c>
-      <c r="Q66" t="s">
-        <v>20</v>
-      </c>
       <c r="R66" t="s">
         <v>20</v>
       </c>
@@ -4582,57 +4595,57 @@
       <c r="T66" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="U66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B67">
         <v>392</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>4</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>2</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>115</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F67" t="s">
-        <v>20</v>
-      </c>
       <c r="G67" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" t="s">
         <v>6</v>
       </c>
-      <c r="H67" t="s">
-        <v>20</v>
-      </c>
       <c r="I67" t="s">
         <v>20</v>
       </c>
       <c r="J67" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" t="s">
         <v>9</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>10</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>11</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>734</v>
       </c>
-      <c r="N67" t="s">
-        <v>20</v>
-      </c>
       <c r="O67" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" t="s">
         <v>14</v>
       </c>
-      <c r="P67" t="s">
-        <v>20</v>
-      </c>
       <c r="Q67" t="s">
         <v>20</v>
       </c>
@@ -4645,26 +4658,26 @@
       <c r="T67" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="U67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B68">
         <v>394</v>
       </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E109" si="1">IF(D68&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F68" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F109" si="1">IF(E68&gt;0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="G68" t="s">
         <v>20</v>
@@ -4679,20 +4692,20 @@
         <v>20</v>
       </c>
       <c r="K68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" t="s">
         <v>10</v>
       </c>
-      <c r="L68" t="s">
-        <v>20</v>
-      </c>
-      <c r="M68">
+      <c r="M68" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68">
         <v>215</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>13</v>
       </c>
-      <c r="O68" t="s">
-        <v>20</v>
-      </c>
       <c r="P68" t="s">
         <v>20</v>
       </c>
@@ -4708,51 +4721,51 @@
       <c r="T68" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="U68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B69">
         <v>406</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>5</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>3</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>1853</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>5</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>6</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>7</v>
       </c>
-      <c r="I69" t="s">
-        <v>20</v>
-      </c>
       <c r="J69" t="s">
         <v>20</v>
       </c>
       <c r="K69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" t="s">
         <v>10</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>11</v>
       </c>
-      <c r="M69" s="1">
+      <c r="N69" s="1">
         <v>1942</v>
       </c>
-      <c r="N69" t="s">
-        <v>20</v>
-      </c>
       <c r="O69" t="s">
         <v>20</v>
       </c>
@@ -4771,27 +4784,27 @@
       <c r="T69" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="U69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B70">
         <v>412</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F70" t="s">
-        <v>20</v>
-      </c>
       <c r="G70" t="s">
         <v>20</v>
       </c>
@@ -4808,14 +4821,14 @@
         <v>20</v>
       </c>
       <c r="L70" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" t="s">
         <v>11</v>
       </c>
-      <c r="M70" s="1">
+      <c r="N70" s="1">
         <v>1711</v>
       </c>
-      <c r="N70" t="s">
-        <v>20</v>
-      </c>
       <c r="O70" t="s">
         <v>20</v>
       </c>
@@ -4823,68 +4836,68 @@
         <v>20</v>
       </c>
       <c r="Q70" t="s">
+        <v>20</v>
+      </c>
+      <c r="R70" t="s">
         <v>16</v>
       </c>
-      <c r="R70" t="s">
-        <v>20</v>
-      </c>
       <c r="S70" t="s">
         <v>20</v>
       </c>
       <c r="T70" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="U70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B71">
         <v>417</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>9</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>3</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>74</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>5</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>6</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>7</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>8</v>
       </c>
-      <c r="J71" t="s">
-        <v>20</v>
-      </c>
       <c r="K71" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" t="s">
         <v>10</v>
       </c>
-      <c r="L71" t="s">
-        <v>20</v>
-      </c>
-      <c r="M71" s="1">
+      <c r="M71" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" s="1">
         <v>1552</v>
       </c>
-      <c r="N71" t="s">
-        <v>20</v>
-      </c>
       <c r="O71" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" t="s">
         <v>14</v>
       </c>
-      <c r="P71" t="s">
-        <v>20</v>
-      </c>
       <c r="Q71" t="s">
         <v>20</v>
       </c>
@@ -4897,36 +4910,36 @@
       <c r="T71" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="U71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B72">
         <v>421</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
         <v>790</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F72" t="s">
-        <v>20</v>
-      </c>
       <c r="G72" t="s">
         <v>20</v>
       </c>
       <c r="H72" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" t="s">
         <v>7</v>
       </c>
-      <c r="I72" t="s">
-        <v>20</v>
-      </c>
       <c r="J72" t="s">
         <v>20</v>
       </c>
@@ -4936,18 +4949,18 @@
       <c r="L72" t="s">
         <v>20</v>
       </c>
-      <c r="M72">
+      <c r="M72" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72">
         <v>695</v>
       </c>
-      <c r="N72" t="s">
-        <v>20</v>
-      </c>
       <c r="O72" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" t="s">
         <v>14</v>
       </c>
-      <c r="P72" t="s">
-        <v>20</v>
-      </c>
       <c r="Q72" t="s">
         <v>20</v>
       </c>
@@ -4960,30 +4973,30 @@
       <c r="T72" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="U72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B73">
         <v>422</v>
-      </c>
-      <c r="B73">
-        <v>2</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>5</v>
       </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
       <c r="H73" t="s">
         <v>20</v>
       </c>
@@ -4999,18 +5012,18 @@
       <c r="L73" t="s">
         <v>20</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M73" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" s="1">
         <v>1569</v>
       </c>
-      <c r="N73" t="s">
-        <v>20</v>
-      </c>
       <c r="O73" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" t="s">
         <v>14</v>
       </c>
-      <c r="P73" t="s">
-        <v>20</v>
-      </c>
       <c r="Q73" t="s">
         <v>20</v>
       </c>
@@ -5023,30 +5036,30 @@
       <c r="T73" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="U73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B74">
         <v>439</v>
       </c>
-      <c r="B74" t="s">
-        <v>20</v>
-      </c>
       <c r="C74" t="s">
         <v>20</v>
       </c>
-      <c r="D74">
-        <v>0</v>
+      <c r="D74" t="s">
+        <v>20</v>
       </c>
       <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>5</v>
       </c>
-      <c r="G74" t="s">
-        <v>20</v>
-      </c>
       <c r="H74" t="s">
         <v>20</v>
       </c>
@@ -5060,20 +5073,20 @@
         <v>20</v>
       </c>
       <c r="L74" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" t="s">
         <v>11</v>
       </c>
-      <c r="M74" s="1">
+      <c r="N74" s="1">
         <v>2002</v>
       </c>
-      <c r="N74" t="s">
-        <v>20</v>
-      </c>
       <c r="O74" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" t="s">
         <v>14</v>
       </c>
-      <c r="P74" t="s">
-        <v>20</v>
-      </c>
       <c r="Q74" t="s">
         <v>20</v>
       </c>
@@ -5086,51 +5099,51 @@
       <c r="T74" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="U74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B75">
         <v>450</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>2</v>
       </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
       <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
         <v>999</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>5</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>6</v>
       </c>
-      <c r="H75" t="s">
-        <v>20</v>
-      </c>
       <c r="I75" t="s">
         <v>20</v>
       </c>
       <c r="J75" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" t="s">
         <v>9</v>
       </c>
-      <c r="K75" t="s">
-        <v>20</v>
-      </c>
       <c r="L75" t="s">
         <v>20</v>
       </c>
-      <c r="M75">
+      <c r="M75" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75">
         <v>676</v>
       </c>
-      <c r="N75" t="s">
-        <v>20</v>
-      </c>
       <c r="O75" t="s">
         <v>20</v>
       </c>
@@ -5149,27 +5162,27 @@
       <c r="T75" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="U75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B76">
         <v>453</v>
       </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F76" t="s">
-        <v>20</v>
-      </c>
       <c r="G76" t="s">
         <v>20</v>
       </c>
@@ -5186,14 +5199,14 @@
         <v>20</v>
       </c>
       <c r="L76" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" t="s">
         <v>11</v>
       </c>
-      <c r="M76" s="1">
+      <c r="N76" s="1">
         <v>1193</v>
       </c>
-      <c r="N76" t="s">
-        <v>20</v>
-      </c>
       <c r="O76" t="s">
         <v>20</v>
       </c>
@@ -5207,32 +5220,32 @@
         <v>20</v>
       </c>
       <c r="S76" t="s">
+        <v>20</v>
+      </c>
+      <c r="T76" t="s">
         <v>18</v>
       </c>
-      <c r="T76" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="U76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B77">
         <v>458</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
       <c r="C77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F77" t="s">
-        <v>20</v>
-      </c>
       <c r="G77" t="s">
         <v>20</v>
       </c>
@@ -5249,14 +5262,14 @@
         <v>20</v>
       </c>
       <c r="L77" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" t="s">
         <v>11</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>75</v>
       </c>
-      <c r="N77" t="s">
-        <v>20</v>
-      </c>
       <c r="O77" t="s">
         <v>20</v>
       </c>
@@ -5270,32 +5283,32 @@
         <v>20</v>
       </c>
       <c r="S77" t="s">
+        <v>20</v>
+      </c>
+      <c r="T77" t="s">
         <v>18</v>
       </c>
-      <c r="T77" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="U77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B78">
         <v>464</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F78" t="s">
-        <v>20</v>
-      </c>
       <c r="G78" t="s">
         <v>20</v>
       </c>
@@ -5303,26 +5316,26 @@
         <v>20</v>
       </c>
       <c r="I78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" t="s">
         <v>8</v>
       </c>
-      <c r="J78" t="s">
-        <v>20</v>
-      </c>
       <c r="K78" t="s">
         <v>20</v>
       </c>
       <c r="L78" t="s">
         <v>20</v>
       </c>
-      <c r="M78">
+      <c r="M78" t="s">
+        <v>20</v>
+      </c>
+      <c r="N78">
         <v>839</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>13</v>
       </c>
-      <c r="O78" t="s">
-        <v>20</v>
-      </c>
       <c r="P78" t="s">
         <v>20</v>
       </c>
@@ -5338,27 +5351,27 @@
       <c r="T78" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="U78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B79">
         <v>469</v>
       </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
       <c r="C79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F79" t="s">
-        <v>20</v>
-      </c>
       <c r="G79" t="s">
         <v>20</v>
       </c>
@@ -5369,20 +5382,20 @@
         <v>20</v>
       </c>
       <c r="J79" t="s">
+        <v>20</v>
+      </c>
+      <c r="K79" t="s">
         <v>9</v>
       </c>
-      <c r="K79" t="s">
-        <v>20</v>
-      </c>
       <c r="L79" t="s">
         <v>20</v>
       </c>
-      <c r="M79">
+      <c r="M79" t="s">
+        <v>20</v>
+      </c>
+      <c r="N79">
         <v>950</v>
       </c>
-      <c r="N79" t="s">
-        <v>20</v>
-      </c>
       <c r="O79" t="s">
         <v>20</v>
       </c>
@@ -5401,30 +5414,30 @@
       <c r="T79" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="U79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B80">
         <v>470</v>
-      </c>
-      <c r="B80">
-        <v>2</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>5</v>
       </c>
-      <c r="G80" t="s">
-        <v>20</v>
-      </c>
       <c r="H80" t="s">
         <v>20</v>
       </c>
@@ -5435,23 +5448,23 @@
         <v>20</v>
       </c>
       <c r="K80" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" t="s">
         <v>10</v>
       </c>
-      <c r="L80" t="s">
-        <v>20</v>
-      </c>
-      <c r="M80">
+      <c r="M80" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80">
         <v>579</v>
       </c>
-      <c r="N80" t="s">
-        <v>20</v>
-      </c>
       <c r="O80" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80" t="s">
         <v>14</v>
       </c>
-      <c r="P80" t="s">
-        <v>20</v>
-      </c>
       <c r="Q80" t="s">
         <v>20</v>
       </c>
@@ -5464,54 +5477,54 @@
       <c r="T80" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="U80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B81">
         <v>473</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>8</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>5</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>6</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>7</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>8</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>9</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>10</v>
       </c>
-      <c r="L81" t="s">
-        <v>20</v>
-      </c>
-      <c r="M81">
+      <c r="M81" t="s">
+        <v>20</v>
+      </c>
+      <c r="N81">
         <v>574</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>13</v>
       </c>
-      <c r="O81" t="s">
-        <v>20</v>
-      </c>
       <c r="P81" t="s">
         <v>20</v>
       </c>
@@ -5527,27 +5540,27 @@
       <c r="T81" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="U81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B82">
         <v>479</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
         <v>290</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F82" t="s">
-        <v>20</v>
-      </c>
       <c r="G82" t="s">
         <v>20</v>
       </c>
@@ -5561,20 +5574,20 @@
         <v>20</v>
       </c>
       <c r="K82" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82" t="s">
         <v>10</v>
       </c>
-      <c r="L82" t="s">
-        <v>20</v>
-      </c>
-      <c r="M82" s="1">
+      <c r="M82" t="s">
+        <v>20</v>
+      </c>
+      <c r="N82" s="1">
         <v>1882</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>13</v>
       </c>
-      <c r="O82" t="s">
-        <v>20</v>
-      </c>
       <c r="P82" t="s">
         <v>20</v>
       </c>
@@ -5590,27 +5603,27 @@
       <c r="T82" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="U82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B83">
         <v>482</v>
-      </c>
-      <c r="B83">
-        <v>2</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
         <v>543</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F83" t="s">
-        <v>20</v>
-      </c>
       <c r="G83" t="s">
         <v>20</v>
       </c>
@@ -5618,26 +5631,26 @@
         <v>20</v>
       </c>
       <c r="I83" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" t="s">
         <v>8</v>
       </c>
-      <c r="J83" t="s">
-        <v>20</v>
-      </c>
       <c r="K83" t="s">
         <v>20</v>
       </c>
       <c r="L83" t="s">
+        <v>20</v>
+      </c>
+      <c r="M83" t="s">
         <v>11</v>
       </c>
-      <c r="M83" s="1">
+      <c r="N83" s="1">
         <v>2226</v>
       </c>
-      <c r="N83" t="s">
+      <c r="O83" t="s">
         <v>13</v>
       </c>
-      <c r="O83" t="s">
-        <v>20</v>
-      </c>
       <c r="P83" t="s">
         <v>20</v>
       </c>
@@ -5653,27 +5666,27 @@
       <c r="T83" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="U83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B84">
         <v>484</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>2</v>
       </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F84" t="s">
-        <v>20</v>
-      </c>
       <c r="G84" t="s">
         <v>20</v>
       </c>
@@ -5681,32 +5694,32 @@
         <v>20</v>
       </c>
       <c r="I84" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" t="s">
         <v>8</v>
       </c>
-      <c r="J84" t="s">
-        <v>20</v>
-      </c>
       <c r="K84" t="s">
         <v>20</v>
       </c>
       <c r="L84" t="s">
+        <v>20</v>
+      </c>
+      <c r="M84" t="s">
         <v>11</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>357</v>
       </c>
-      <c r="N84" t="s">
-        <v>20</v>
-      </c>
       <c r="O84" t="s">
         <v>20</v>
       </c>
       <c r="P84" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q84" t="s">
         <v>15</v>
       </c>
-      <c r="Q84" t="s">
-        <v>20</v>
-      </c>
       <c r="R84" t="s">
         <v>20</v>
       </c>
@@ -5716,54 +5729,54 @@
       <c r="T84" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="U84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B85">
         <v>487</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>3</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>2</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>699</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F85" t="s">
-        <v>20</v>
-      </c>
       <c r="G85" t="s">
         <v>20</v>
       </c>
       <c r="H85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" t="s">
         <v>7</v>
       </c>
-      <c r="I85" t="s">
-        <v>20</v>
-      </c>
       <c r="J85" t="s">
         <v>20</v>
       </c>
       <c r="K85" t="s">
+        <v>20</v>
+      </c>
+      <c r="L85" t="s">
         <v>10</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>11</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>409</v>
       </c>
-      <c r="N85" t="s">
+      <c r="O85" t="s">
         <v>13</v>
       </c>
-      <c r="O85" t="s">
-        <v>20</v>
-      </c>
       <c r="P85" t="s">
         <v>20</v>
       </c>
@@ -5779,54 +5792,54 @@
       <c r="T85" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="U85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B86">
         <v>491</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>4</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>2</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>3299</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F86" t="s">
-        <v>20</v>
-      </c>
       <c r="G86" t="s">
         <v>20</v>
       </c>
       <c r="H86" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" t="s">
         <v>7</v>
       </c>
-      <c r="I86" t="s">
-        <v>20</v>
-      </c>
       <c r="J86" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" t="s">
         <v>9</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>10</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>11</v>
       </c>
-      <c r="M86" s="1">
+      <c r="N86" s="1">
         <v>1295</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>13</v>
       </c>
-      <c r="O86" t="s">
-        <v>20</v>
-      </c>
       <c r="P86" t="s">
         <v>20</v>
       </c>
@@ -5842,36 +5855,36 @@
       <c r="T86" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="U86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B87">
         <v>493</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
         <v>64.75</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F87" t="s">
-        <v>20</v>
-      </c>
       <c r="G87" t="s">
         <v>20</v>
       </c>
       <c r="H87" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" t="s">
         <v>7</v>
       </c>
-      <c r="I87" t="s">
-        <v>20</v>
-      </c>
       <c r="J87" t="s">
         <v>20</v>
       </c>
@@ -5881,21 +5894,21 @@
       <c r="L87" t="s">
         <v>20</v>
       </c>
-      <c r="M87" s="1">
+      <c r="M87" t="s">
+        <v>20</v>
+      </c>
+      <c r="N87" s="1">
         <v>1192</v>
       </c>
-      <c r="N87" t="s">
-        <v>20</v>
-      </c>
       <c r="O87" t="s">
         <v>20</v>
       </c>
       <c r="P87" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q87" t="s">
         <v>15</v>
       </c>
-      <c r="Q87" t="s">
-        <v>20</v>
-      </c>
       <c r="R87" t="s">
         <v>20</v>
       </c>
@@ -5905,27 +5918,27 @@
       <c r="T87" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="U87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B88">
         <v>496</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>5</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>3</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>435</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F88" t="s">
-        <v>20</v>
-      </c>
       <c r="G88" t="s">
         <v>20</v>
       </c>
@@ -5933,26 +5946,26 @@
         <v>20</v>
       </c>
       <c r="I88" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" t="s">
         <v>8</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>9</v>
       </c>
-      <c r="K88" t="s">
-        <v>20</v>
-      </c>
       <c r="L88" t="s">
+        <v>20</v>
+      </c>
+      <c r="M88" t="s">
         <v>11</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <v>604</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" t="s">
         <v>13</v>
       </c>
-      <c r="O88" t="s">
-        <v>20</v>
-      </c>
       <c r="P88" t="s">
         <v>20</v>
       </c>
@@ -5968,33 +5981,33 @@
       <c r="T88" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="U88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B89">
         <v>503</v>
       </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
         <v>529</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F89" t="s">
-        <v>20</v>
-      </c>
       <c r="G89" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" t="s">
         <v>6</v>
       </c>
-      <c r="H89" t="s">
-        <v>20</v>
-      </c>
       <c r="I89" t="s">
         <v>20</v>
       </c>
@@ -6007,15 +6020,15 @@
       <c r="L89" t="s">
         <v>20</v>
       </c>
-      <c r="M89">
+      <c r="M89" t="s">
+        <v>20</v>
+      </c>
+      <c r="N89">
         <v>935</v>
       </c>
-      <c r="N89" t="s">
+      <c r="O89" t="s">
         <v>13</v>
       </c>
-      <c r="O89" t="s">
-        <v>20</v>
-      </c>
       <c r="P89" t="s">
         <v>20</v>
       </c>
@@ -6031,36 +6044,36 @@
       <c r="T89" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="U89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B90">
         <v>506</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>3</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>2</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>499</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>5</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>6</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>7</v>
       </c>
-      <c r="I90" t="s">
-        <v>20</v>
-      </c>
       <c r="J90" t="s">
         <v>20</v>
       </c>
@@ -6070,18 +6083,18 @@
       <c r="L90" t="s">
         <v>20</v>
       </c>
-      <c r="M90">
+      <c r="M90" t="s">
+        <v>20</v>
+      </c>
+      <c r="N90">
         <v>256</v>
       </c>
-      <c r="N90" t="s">
-        <v>20</v>
-      </c>
       <c r="O90" t="s">
+        <v>20</v>
+      </c>
+      <c r="P90" t="s">
         <v>14</v>
       </c>
-      <c r="P90" t="s">
-        <v>20</v>
-      </c>
       <c r="Q90" t="s">
         <v>20</v>
       </c>
@@ -6094,51 +6107,51 @@
       <c r="T90" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="U90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B91">
         <v>514</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>6</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>5</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>436.09090909999998</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>5</v>
       </c>
-      <c r="G91" t="s">
-        <v>20</v>
-      </c>
       <c r="H91" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" t="s">
         <v>7</v>
       </c>
-      <c r="I91" t="s">
-        <v>20</v>
-      </c>
       <c r="J91" t="s">
+        <v>20</v>
+      </c>
+      <c r="K91" t="s">
         <v>9</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>10</v>
       </c>
-      <c r="L91" t="s">
-        <v>20</v>
-      </c>
-      <c r="M91">
+      <c r="M91" t="s">
+        <v>20</v>
+      </c>
+      <c r="N91">
         <v>846</v>
       </c>
-      <c r="N91" t="s">
-        <v>20</v>
-      </c>
       <c r="O91" t="s">
         <v>20</v>
       </c>
@@ -6155,29 +6168,29 @@
         <v>20</v>
       </c>
       <c r="T91" t="s">
+        <v>20</v>
+      </c>
+      <c r="U91" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B92">
         <v>518</v>
       </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F92" t="s">
-        <v>20</v>
-      </c>
       <c r="G92" t="s">
         <v>20</v>
       </c>
@@ -6188,20 +6201,20 @@
         <v>20</v>
       </c>
       <c r="J92" t="s">
+        <v>20</v>
+      </c>
+      <c r="K92" t="s">
         <v>9</v>
       </c>
-      <c r="K92" t="s">
-        <v>20</v>
-      </c>
       <c r="L92" t="s">
         <v>20</v>
       </c>
-      <c r="M92">
+      <c r="M92" t="s">
+        <v>20</v>
+      </c>
+      <c r="N92">
         <v>438</v>
       </c>
-      <c r="N92" t="s">
-        <v>20</v>
-      </c>
       <c r="O92" t="s">
         <v>20</v>
       </c>
@@ -6220,27 +6233,27 @@
       <c r="T92" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="U92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B93">
         <v>519</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>2</v>
       </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
       <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
         <v>570</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F93" t="s">
-        <v>20</v>
-      </c>
       <c r="G93" t="s">
         <v>20</v>
       </c>
@@ -6248,23 +6261,23 @@
         <v>20</v>
       </c>
       <c r="I93" t="s">
+        <v>20</v>
+      </c>
+      <c r="J93" t="s">
         <v>8</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>9</v>
       </c>
-      <c r="K93" t="s">
-        <v>20</v>
-      </c>
       <c r="L93" t="s">
         <v>20</v>
       </c>
-      <c r="M93" s="1">
+      <c r="M93" t="s">
+        <v>20</v>
+      </c>
+      <c r="N93" s="1">
         <v>4344</v>
       </c>
-      <c r="N93" t="s">
-        <v>20</v>
-      </c>
       <c r="O93" t="s">
         <v>20</v>
       </c>
@@ -6272,44 +6285,44 @@
         <v>20</v>
       </c>
       <c r="Q93" t="s">
+        <v>20</v>
+      </c>
+      <c r="R93" t="s">
         <v>16</v>
       </c>
-      <c r="R93" t="s">
-        <v>20</v>
-      </c>
       <c r="S93" t="s">
         <v>20</v>
       </c>
       <c r="T93" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="U93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B94">
         <v>520</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>3</v>
       </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
       <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
         <v>369.66666670000001</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F94" t="s">
-        <v>20</v>
-      </c>
       <c r="G94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" t="s">
         <v>6</v>
       </c>
-      <c r="H94" t="s">
-        <v>20</v>
-      </c>
       <c r="I94" t="s">
         <v>20</v>
       </c>
@@ -6320,17 +6333,17 @@
         <v>20</v>
       </c>
       <c r="L94" t="s">
+        <v>20</v>
+      </c>
+      <c r="M94" t="s">
         <v>11</v>
       </c>
-      <c r="M94" s="1">
+      <c r="N94" s="1">
         <v>1036</v>
       </c>
-      <c r="N94" t="s">
+      <c r="O94" t="s">
         <v>13</v>
       </c>
-      <c r="O94" t="s">
-        <v>20</v>
-      </c>
       <c r="P94" t="s">
         <v>20</v>
       </c>
@@ -6346,27 +6359,27 @@
       <c r="T94" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="U94" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B95">
         <v>521</v>
       </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
         <v>720</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F95" t="s">
-        <v>20</v>
-      </c>
       <c r="G95" t="s">
         <v>20</v>
       </c>
@@ -6374,26 +6387,26 @@
         <v>20</v>
       </c>
       <c r="I95" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" t="s">
         <v>8</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>9</v>
       </c>
-      <c r="K95" t="s">
-        <v>20</v>
-      </c>
       <c r="L95" t="s">
         <v>20</v>
       </c>
-      <c r="M95" s="1">
+      <c r="M95" t="s">
+        <v>20</v>
+      </c>
+      <c r="N95" s="1">
         <v>1056</v>
       </c>
-      <c r="N95" t="s">
+      <c r="O95" t="s">
         <v>13</v>
       </c>
-      <c r="O95" t="s">
-        <v>20</v>
-      </c>
       <c r="P95" t="s">
         <v>20</v>
       </c>
@@ -6409,27 +6422,27 @@
       <c r="T95" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="U95" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B96">
         <v>523</v>
-      </c>
-      <c r="B96">
-        <v>2</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
         <v>1530</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F96" t="s">
-        <v>20</v>
-      </c>
       <c r="G96" t="s">
         <v>20</v>
       </c>
@@ -6437,23 +6450,23 @@
         <v>20</v>
       </c>
       <c r="I96" t="s">
+        <v>20</v>
+      </c>
+      <c r="J96" t="s">
         <v>8</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>9</v>
       </c>
-      <c r="K96" t="s">
-        <v>20</v>
-      </c>
       <c r="L96" t="s">
         <v>20</v>
       </c>
-      <c r="M96" s="1">
+      <c r="M96" t="s">
+        <v>20</v>
+      </c>
+      <c r="N96" s="1">
         <v>3014</v>
       </c>
-      <c r="N96" t="s">
-        <v>20</v>
-      </c>
       <c r="O96" t="s">
         <v>20</v>
       </c>
@@ -6472,36 +6485,36 @@
       <c r="T96" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="U96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B97">
         <v>524</v>
       </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
         <v>650</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F97" t="s">
-        <v>20</v>
-      </c>
       <c r="G97" t="s">
         <v>20</v>
       </c>
       <c r="H97" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" t="s">
         <v>7</v>
       </c>
-      <c r="I97" t="s">
-        <v>20</v>
-      </c>
       <c r="J97" t="s">
         <v>20</v>
       </c>
@@ -6511,12 +6524,12 @@
       <c r="L97" t="s">
         <v>20</v>
       </c>
-      <c r="M97">
+      <c r="M97" t="s">
+        <v>20</v>
+      </c>
+      <c r="N97">
         <v>738</v>
       </c>
-      <c r="N97" t="s">
-        <v>20</v>
-      </c>
       <c r="O97" t="s">
         <v>20</v>
       </c>
@@ -6535,57 +6548,57 @@
       <c r="T97" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="U97" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B98">
         <v>526</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>4</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>3</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>1490</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>5</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>6</v>
       </c>
-      <c r="H98" t="s">
-        <v>20</v>
-      </c>
       <c r="I98" t="s">
+        <v>20</v>
+      </c>
+      <c r="J98" t="s">
         <v>8</v>
       </c>
-      <c r="J98" t="s">
-        <v>20</v>
-      </c>
       <c r="K98" t="s">
         <v>20</v>
       </c>
       <c r="L98" t="s">
+        <v>20</v>
+      </c>
+      <c r="M98" t="s">
         <v>11</v>
       </c>
-      <c r="M98">
+      <c r="N98">
         <v>189</v>
       </c>
-      <c r="N98" t="s">
-        <v>20</v>
-      </c>
       <c r="O98" t="s">
+        <v>20</v>
+      </c>
+      <c r="P98" t="s">
         <v>14</v>
       </c>
-      <c r="P98" t="s">
-        <v>20</v>
-      </c>
       <c r="Q98" t="s">
         <v>20</v>
       </c>
@@ -6598,27 +6611,27 @@
       <c r="T98" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="U98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B99">
         <v>528</v>
       </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
         <v>390</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F99" t="s">
-        <v>20</v>
-      </c>
       <c r="G99" t="s">
         <v>20</v>
       </c>
@@ -6632,26 +6645,26 @@
         <v>20</v>
       </c>
       <c r="K99" t="s">
+        <v>20</v>
+      </c>
+      <c r="L99" t="s">
         <v>10</v>
       </c>
-      <c r="L99" t="s">
-        <v>20</v>
-      </c>
-      <c r="M99">
+      <c r="M99" t="s">
+        <v>20</v>
+      </c>
+      <c r="N99">
         <v>365</v>
       </c>
-      <c r="N99" t="s">
-        <v>20</v>
-      </c>
       <c r="O99" t="s">
         <v>20</v>
       </c>
       <c r="P99" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q99" t="s">
         <v>15</v>
       </c>
-      <c r="Q99" t="s">
-        <v>20</v>
-      </c>
       <c r="R99" t="s">
         <v>20</v>
       </c>
@@ -6661,54 +6674,54 @@
       <c r="T99" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="U99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B100">
         <v>535</v>
       </c>
-      <c r="B100">
+      <c r="C100">
         <v>3</v>
       </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
       <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
         <v>478</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F100" t="s">
-        <v>20</v>
-      </c>
       <c r="G100" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" t="s">
         <v>6</v>
       </c>
-      <c r="H100" t="s">
-        <v>20</v>
-      </c>
       <c r="I100" t="s">
         <v>20</v>
       </c>
       <c r="J100" t="s">
+        <v>20</v>
+      </c>
+      <c r="K100" t="s">
         <v>9</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" t="s">
         <v>10</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
         <v>11</v>
       </c>
-      <c r="M100" s="1">
+      <c r="N100" s="1">
         <v>1066</v>
       </c>
-      <c r="N100" t="s">
+      <c r="O100" t="s">
         <v>13</v>
       </c>
-      <c r="O100" t="s">
-        <v>20</v>
-      </c>
       <c r="P100" t="s">
         <v>20</v>
       </c>
@@ -6724,33 +6737,33 @@
       <c r="T100" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="U100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B101">
         <v>536</v>
       </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
         <v>1490</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F101" t="s">
-        <v>20</v>
-      </c>
       <c r="G101" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" t="s">
         <v>6</v>
       </c>
-      <c r="H101" t="s">
-        <v>20</v>
-      </c>
       <c r="I101" t="s">
         <v>20</v>
       </c>
@@ -6763,12 +6776,12 @@
       <c r="L101" t="s">
         <v>20</v>
       </c>
-      <c r="M101">
+      <c r="M101" t="s">
+        <v>20</v>
+      </c>
+      <c r="N101">
         <v>812</v>
       </c>
-      <c r="N101" t="s">
-        <v>20</v>
-      </c>
       <c r="O101" t="s">
         <v>20</v>
       </c>
@@ -6787,54 +6800,54 @@
       <c r="T101" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="U101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B102">
         <v>538</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>4</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>3</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>375</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>5</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>6</v>
       </c>
-      <c r="H102" t="s">
-        <v>20</v>
-      </c>
       <c r="I102" t="s">
+        <v>20</v>
+      </c>
+      <c r="J102" t="s">
         <v>8</v>
       </c>
-      <c r="J102" t="s">
-        <v>20</v>
-      </c>
       <c r="K102" t="s">
         <v>20</v>
       </c>
       <c r="L102" t="s">
+        <v>20</v>
+      </c>
+      <c r="M102" t="s">
         <v>11</v>
       </c>
-      <c r="M102">
+      <c r="N102">
         <v>512</v>
       </c>
-      <c r="N102" t="s">
+      <c r="O102" t="s">
         <v>13</v>
       </c>
-      <c r="O102" t="s">
-        <v>20</v>
-      </c>
       <c r="P102" t="s">
         <v>20</v>
       </c>
@@ -6850,36 +6863,36 @@
       <c r="T102" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="U102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B103">
         <v>540</v>
       </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F103" t="s">
-        <v>20</v>
-      </c>
       <c r="G103" t="s">
         <v>20</v>
       </c>
       <c r="H103" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" t="s">
         <v>7</v>
       </c>
-      <c r="I103" t="s">
-        <v>20</v>
-      </c>
       <c r="J103" t="s">
         <v>20</v>
       </c>
@@ -6889,21 +6902,21 @@
       <c r="L103" t="s">
         <v>20</v>
       </c>
-      <c r="M103">
+      <c r="M103" t="s">
+        <v>20</v>
+      </c>
+      <c r="N103">
         <v>404</v>
       </c>
-      <c r="N103" t="s">
-        <v>20</v>
-      </c>
       <c r="O103" t="s">
         <v>20</v>
       </c>
       <c r="P103" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q103" t="s">
         <v>15</v>
       </c>
-      <c r="Q103" t="s">
-        <v>20</v>
-      </c>
       <c r="R103" t="s">
         <v>20</v>
       </c>
@@ -6913,27 +6926,27 @@
       <c r="T103" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="U103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B104">
         <v>543</v>
       </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
       <c r="C104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
         <v>399</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F104" t="s">
-        <v>20</v>
-      </c>
       <c r="G104" t="s">
         <v>20</v>
       </c>
@@ -6947,17 +6960,17 @@
         <v>20</v>
       </c>
       <c r="K104" t="s">
+        <v>20</v>
+      </c>
+      <c r="L104" t="s">
         <v>10</v>
       </c>
-      <c r="L104" t="s">
-        <v>20</v>
-      </c>
-      <c r="M104">
+      <c r="M104" t="s">
+        <v>20</v>
+      </c>
+      <c r="N104">
         <v>576</v>
       </c>
-      <c r="N104" t="s">
-        <v>20</v>
-      </c>
       <c r="O104" t="s">
         <v>20</v>
       </c>
@@ -6976,27 +6989,27 @@
       <c r="T104" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="U104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B105">
         <v>552</v>
       </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F105" t="s">
-        <v>20</v>
-      </c>
       <c r="G105" t="s">
         <v>20</v>
       </c>
@@ -7007,29 +7020,29 @@
         <v>20</v>
       </c>
       <c r="J105" t="s">
+        <v>20</v>
+      </c>
+      <c r="K105" t="s">
         <v>9</v>
       </c>
-      <c r="K105" t="s">
-        <v>20</v>
-      </c>
       <c r="L105" t="s">
         <v>20</v>
       </c>
-      <c r="M105">
+      <c r="M105" t="s">
+        <v>20</v>
+      </c>
+      <c r="N105">
         <v>127</v>
       </c>
-      <c r="N105" t="s">
-        <v>20</v>
-      </c>
       <c r="O105" t="s">
         <v>20</v>
       </c>
       <c r="P105" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q105" t="s">
         <v>15</v>
       </c>
-      <c r="Q105" t="s">
-        <v>20</v>
-      </c>
       <c r="R105" t="s">
         <v>20</v>
       </c>
@@ -7039,54 +7052,54 @@
       <c r="T105" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="U105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B106">
         <v>555</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>11</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>6</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>547</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>5</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>6</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>7</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>8</v>
       </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
         <v>9</v>
       </c>
-      <c r="K106" t="s">
+      <c r="L106" t="s">
         <v>10</v>
       </c>
-      <c r="L106" t="s">
+      <c r="M106" t="s">
         <v>11</v>
       </c>
-      <c r="M106" s="1">
+      <c r="N106" s="1">
         <v>1101</v>
       </c>
-      <c r="N106" t="s">
+      <c r="O106" t="s">
         <v>13</v>
       </c>
-      <c r="O106" t="s">
-        <v>20</v>
-      </c>
       <c r="P106" t="s">
         <v>20</v>
       </c>
@@ -7102,60 +7115,60 @@
       <c r="T106" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="U106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B107">
         <v>557</v>
-      </c>
-      <c r="B107">
-        <v>4</v>
       </c>
       <c r="C107">
         <v>4</v>
       </c>
       <c r="D107">
+        <v>4</v>
+      </c>
+      <c r="E107">
         <v>406</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F107" t="s">
-        <v>20</v>
-      </c>
       <c r="G107" t="s">
         <v>20</v>
       </c>
       <c r="H107" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" t="s">
         <v>7</v>
       </c>
-      <c r="I107" t="s">
-        <v>20</v>
-      </c>
       <c r="J107" t="s">
         <v>20</v>
       </c>
       <c r="K107" t="s">
+        <v>20</v>
+      </c>
+      <c r="L107" t="s">
         <v>10</v>
       </c>
-      <c r="L107" t="s">
-        <v>20</v>
-      </c>
-      <c r="M107" s="1">
+      <c r="M107" t="s">
+        <v>20</v>
+      </c>
+      <c r="N107" s="1">
         <v>1806</v>
       </c>
-      <c r="N107" t="s">
-        <v>20</v>
-      </c>
       <c r="O107" t="s">
         <v>20</v>
       </c>
       <c r="P107" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q107" t="s">
         <v>15</v>
       </c>
-      <c r="Q107" t="s">
-        <v>20</v>
-      </c>
       <c r="R107" t="s">
         <v>20</v>
       </c>
@@ -7165,27 +7178,27 @@
       <c r="T107" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="U107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B108">
         <v>560</v>
       </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
         <v>299</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F108" t="s">
-        <v>20</v>
-      </c>
       <c r="G108" t="s">
         <v>20</v>
       </c>
@@ -7202,14 +7215,14 @@
         <v>20</v>
       </c>
       <c r="L108" t="s">
+        <v>20</v>
+      </c>
+      <c r="M108" t="s">
         <v>11</v>
       </c>
-      <c r="M108" s="1">
+      <c r="N108" s="1">
         <v>1516</v>
       </c>
-      <c r="N108" t="s">
-        <v>20</v>
-      </c>
       <c r="O108" t="s">
         <v>20</v>
       </c>
@@ -7228,33 +7241,30 @@
       <c r="T108" t="s">
         <v>20</v>
       </c>
-      <c r="V108">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="U108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B109">
         <v>561</v>
       </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
         <v>499</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>5</v>
       </c>
-      <c r="G109" t="s">
-        <v>20</v>
-      </c>
       <c r="H109" t="s">
         <v>20</v>
       </c>
@@ -7270,18 +7280,18 @@
       <c r="L109" t="s">
         <v>20</v>
       </c>
-      <c r="M109">
+      <c r="M109" t="s">
+        <v>20</v>
+      </c>
+      <c r="N109">
         <v>413</v>
       </c>
-      <c r="N109" t="s">
-        <v>20</v>
-      </c>
       <c r="O109" t="s">
+        <v>20</v>
+      </c>
+      <c r="P109" t="s">
         <v>14</v>
       </c>
-      <c r="P109" t="s">
-        <v>20</v>
-      </c>
       <c r="Q109" t="s">
         <v>20</v>
       </c>
@@ -7293,9 +7303,719 @@
       </c>
       <c r="T109" t="s">
         <v>20</v>
+      </c>
+      <c r="U109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110">
+        <f>AVERAGE(B2:B109)</f>
+        <v>351.0462962962963</v>
+      </c>
+      <c r="C110">
+        <f t="shared" ref="C110:N110" si="2">AVERAGE(C2:C109)</f>
+        <v>2.7169811320754715</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="2"/>
+        <v>1.3773584905660377</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="2"/>
+        <v>589.7716750842593</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="2"/>
+        <v>0.7407407407407407</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>22</v>
+      </c>
+      <c r="B111">
+        <f>STDEV(B2:B109)</f>
+        <v>142.76995313743245</v>
+      </c>
+      <c r="C111">
+        <f t="shared" ref="C111:N111" si="3">STDEV(C2:C109)</f>
+        <v>3.1795618655379969</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="3"/>
+        <v>1.6530078223459039</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="3"/>
+        <v>1111.5820196511236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <f>_xlfn.NORM.DIST(614,E110,E111,TRUE)</f>
+        <v>0.50869475913676787</v>
+      </c>
+      <c r="F112">
+        <f>BINOMDIST(SUM(F2:F109)-1,COUNT(F2:F109),0.58,TRUE)</f>
+        <v>0.99962354760833871</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <f>1-F112</f>
+        <v>3.7645239166128608E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1711</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1193</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2320</v>
+      </c>
+      <c r="M7">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>75</v>
+      </c>
+      <c r="L8">
+        <v>662</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1516</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1280</v>
+      </c>
+      <c r="M9">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <f>AVERAGE(H2:H9)</f>
+        <v>1159.625</v>
+      </c>
+      <c r="L10">
+        <v>520</v>
+      </c>
+      <c r="M10">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>1711</v>
+      </c>
+      <c r="M11">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <v>1193</v>
+      </c>
+      <c r="M12">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>75</v>
+      </c>
+      <c r="M13">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <v>1516</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="1">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f>TTEST(L7:L14,M7:M15,2,2)</f>
+        <v>0.30949727776499186</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2">
+        <f>AVERAGE(H2:H11)</f>
+        <v>787.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H15"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>